--- a/Protokoll 13/Versuc 23 Berechnungen.xlsx
+++ b/Protokoll 13/Versuc 23 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="280" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="2320" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -120,7 +128,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -147,6 +155,10 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -173,6 +185,10 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -759,7 +775,7 @@
         <v>70.273380000000017</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:K16" si="2">(D16/D15)*I15</f>
+        <f t="shared" ref="I16:J16" si="2">(D16/D15)*I15</f>
         <v>9.7029333333333341</v>
       </c>
       <c r="J16">
@@ -779,7 +795,7 @@
         <v>5.8609749528525725</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="2:6">
       <c r="C18">
         <v>40387</v>
       </c>
@@ -793,7 +809,7 @@
         <v>40450</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="2:6">
       <c r="C19">
         <v>40387</v>
       </c>
@@ -807,7 +823,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="2:6">
       <c r="C20">
         <v>40387</v>
       </c>
@@ -821,7 +837,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="2:6">
       <c r="C21">
         <v>40387</v>
       </c>
@@ -835,7 +851,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="2:6">
       <c r="C22">
         <v>40387</v>
       </c>
@@ -849,7 +865,7 @@
         <v>40454</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="2:6">
       <c r="C23">
         <v>40387</v>
       </c>
@@ -863,7 +879,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="2:6">
       <c r="C24">
         <v>40387</v>
       </c>
@@ -877,7 +893,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="2:6">
       <c r="C25">
         <v>40387</v>
       </c>
@@ -891,7 +907,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="2:6">
       <c r="C26">
         <v>40387</v>
       </c>
@@ -905,7 +921,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="2:6">
       <c r="C27">
         <v>40387</v>
       </c>
@@ -916,7 +932,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="2:6">
       <c r="C28">
         <f>AVERAGE(C18:C27)</f>
         <v>40387</v>
@@ -934,7 +950,7 @@
         <v>40454</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="2:6">
       <c r="D29">
         <f>STDEV(D18:D26)</f>
         <v>1.4529663145135576</v>
@@ -946,6 +962,130 @@
       <c r="F29">
         <f>STDEV(F18:F27)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>13.5</v>
+      </c>
+      <c r="E33">
+        <v>12.7</v>
+      </c>
+      <c r="F33">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <f>1+C33</f>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E34">
+        <v>20.2</v>
+      </c>
+      <c r="F34">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <f t="shared" ref="C35:C37" si="3">1+C34</f>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>27.8</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>28.5</v>
+      </c>
+      <c r="E36">
+        <v>35.5</v>
+      </c>
+      <c r="F36">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>31.1</v>
+      </c>
+      <c r="E37">
+        <v>7.6</v>
+      </c>
+      <c r="F37">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>4.5</v>
+      </c>
+      <c r="D38">
+        <v>0.31</v>
+      </c>
+      <c r="E38">
+        <v>0.03</v>
+      </c>
+      <c r="F38">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="D39">
+        <v>3612</v>
+      </c>
+      <c r="E39">
+        <v>2263</v>
+      </c>
+      <c r="F39">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="D42">
+        <f>C38*2*D39</f>
+        <v>32508</v>
+      </c>
+      <c r="E42">
+        <f>E37*2*E39</f>
+        <v>34397.599999999999</v>
+      </c>
+      <c r="F42">
+        <f>F37*2*F39</f>
+        <v>44115.360000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="D43">
+        <f>AVERAGE(D42:F42)</f>
+        <v>37006.986666666671</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll 13/Versuc 23 Berechnungen.xlsx
+++ b/Protokoll 13/Versuc 23 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2320" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -1068,6 +1068,12 @@
         <v>5036</v>
       </c>
     </row>
+    <row r="41" spans="3:6">
+      <c r="D41">
+        <f>(D38/C38)</f>
+        <v>6.8888888888888888E-2</v>
+      </c>
+    </row>
     <row r="42" spans="3:6">
       <c r="D42">
         <f>C38*2*D39</f>
@@ -1086,6 +1092,10 @@
       <c r="D43">
         <f>AVERAGE(D42:F42)</f>
         <v>37006.986666666671</v>
+      </c>
+      <c r="E43">
+        <f>STDEV(D42:F42)</f>
+        <v>6228.1117222263229</v>
       </c>
     </row>
   </sheetData>
